--- a/Excel-XLSX/UN-JPN.xlsx
+++ b/Excel-XLSX/UN-JPN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1025">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>3J6Whb</t>
+    <t>CfX73i</t>
   </si>
   <si>
     <t>1977</t>
@@ -3012,6 +3012,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>873</t>
+  </si>
+  <si>
     <t>667</t>
   </si>
   <si>
@@ -3054,6 +3057,9 @@
     <t>682</t>
   </si>
   <si>
+    <t>24761</t>
+  </si>
+  <si>
     <t>683</t>
   </si>
   <si>
@@ -3078,7 +3084,13 @@
     <t>692</t>
   </si>
   <si>
+    <t>31293</t>
+  </si>
+  <si>
     <t>693</t>
+  </si>
+  <si>
+    <t>2058</t>
   </si>
 </sst>
 </file>
@@ -3463,7 +3475,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V694"/>
+  <dimension ref="A1:V695"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -48800,7 +48812,7 @@
         <v>31</v>
       </c>
       <c r="N667" s="2" t="s">
-        <v>964</v>
+        <v>998</v>
       </c>
       <c r="O667" s="2" t="s">
         <v>33</v>
@@ -48838,7 +48850,7 @@
         <v>22</v>
       </c>
       <c r="D668" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E668" s="2" t="s">
         <v>997</v>
@@ -48936,7 +48948,7 @@
         <v>31</v>
       </c>
       <c r="N669" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O669" s="2" t="s">
         <v>33</v>
@@ -48974,7 +48986,7 @@
         <v>22</v>
       </c>
       <c r="D670" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E670" s="2" t="s">
         <v>997</v>
@@ -49042,22 +49054,22 @@
         <v>22</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E671" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F671" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G671" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H671" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I671" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="J671" s="2" t="s">
         <v>29</v>
@@ -49072,7 +49084,7 @@
         <v>31</v>
       </c>
       <c r="N671" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="O671" s="2" t="s">
         <v>33</v>
@@ -49110,22 +49122,22 @@
         <v>22</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E672" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F672" s="2" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="G672" s="1" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="H672" s="1" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="I672" s="1" t="s">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="J672" s="2" t="s">
         <v>29</v>
@@ -49140,7 +49152,7 @@
         <v>31</v>
       </c>
       <c r="N672" s="2" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="O672" s="2" t="s">
         <v>33</v>
@@ -49178,22 +49190,22 @@
         <v>22</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E673" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G673" s="1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H673" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I673" s="1" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="J673" s="2" t="s">
         <v>29</v>
@@ -49208,7 +49220,7 @@
         <v>31</v>
       </c>
       <c r="N673" s="2" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="O673" s="2" t="s">
         <v>33</v>
@@ -49246,22 +49258,22 @@
         <v>22</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E674" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G674" s="1" t="s">
-        <v>943</v>
+        <v>266</v>
       </c>
       <c r="H674" s="1" t="s">
-        <v>944</v>
+        <v>267</v>
       </c>
       <c r="I674" s="1" t="s">
-        <v>945</v>
+        <v>267</v>
       </c>
       <c r="J674" s="2" t="s">
         <v>29</v>
@@ -49276,7 +49288,7 @@
         <v>31</v>
       </c>
       <c r="N674" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="O674" s="2" t="s">
         <v>33</v>
@@ -49314,22 +49326,22 @@
         <v>22</v>
       </c>
       <c r="D675" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E675" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F675" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G675" s="1" t="s">
-        <v>163</v>
+        <v>943</v>
       </c>
       <c r="H675" s="1" t="s">
-        <v>164</v>
+        <v>944</v>
       </c>
       <c r="I675" s="1" t="s">
-        <v>164</v>
+        <v>945</v>
       </c>
       <c r="J675" s="2" t="s">
         <v>29</v>
@@ -49344,7 +49356,7 @@
         <v>31</v>
       </c>
       <c r="N675" s="2" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="O675" s="2" t="s">
         <v>33</v>
@@ -49388,16 +49400,16 @@
         <v>997</v>
       </c>
       <c r="F676" s="2" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="G676" s="1" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="H676" s="1" t="s">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="I676" s="1" t="s">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="J676" s="2" t="s">
         <v>29</v>
@@ -49412,7 +49424,7 @@
         <v>31</v>
       </c>
       <c r="N676" s="2" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="O676" s="2" t="s">
         <v>33</v>
@@ -49450,22 +49462,22 @@
         <v>22</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E677" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G677" s="1" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="H677" s="1" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="I677" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="J677" s="2" t="s">
         <v>29</v>
@@ -49518,22 +49530,22 @@
         <v>22</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E678" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F678" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G678" s="1" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="H678" s="1" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="I678" s="1" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="J678" s="2" t="s">
         <v>29</v>
@@ -49586,22 +49598,22 @@
         <v>22</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E679" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="G679" s="1" t="s">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c r="H679" s="1" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="I679" s="1" t="s">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="J679" s="2" t="s">
         <v>29</v>
@@ -49616,7 +49628,7 @@
         <v>31</v>
       </c>
       <c r="N679" s="2" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="O679" s="2" t="s">
         <v>33</v>
@@ -49654,22 +49666,22 @@
         <v>22</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E680" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="G680" s="1" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="H680" s="1" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="I680" s="1" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="J680" s="2" t="s">
         <v>29</v>
@@ -49684,7 +49696,7 @@
         <v>31</v>
       </c>
       <c r="N680" s="2" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="O680" s="2" t="s">
         <v>33</v>
@@ -49722,22 +49734,22 @@
         <v>22</v>
       </c>
       <c r="D681" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E681" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="G681" s="1" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="H681" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I681" s="1" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="J681" s="2" t="s">
         <v>29</v>
@@ -49752,7 +49764,7 @@
         <v>31</v>
       </c>
       <c r="N681" s="2" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="O681" s="2" t="s">
         <v>33</v>
@@ -49790,22 +49802,22 @@
         <v>22</v>
       </c>
       <c r="D682" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="E682" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F682" s="2" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="G682" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="H682" s="1" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="I682" s="1" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="J682" s="2" t="s">
         <v>29</v>
@@ -49820,7 +49832,7 @@
         <v>31</v>
       </c>
       <c r="N682" s="2" t="s">
-        <v>982</v>
+        <v>217</v>
       </c>
       <c r="O682" s="2" t="s">
         <v>33</v>
@@ -49858,22 +49870,22 @@
         <v>22</v>
       </c>
       <c r="D683" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E683" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>252</v>
+        <v>148</v>
       </c>
       <c r="G683" s="1" t="s">
-        <v>253</v>
+        <v>149</v>
       </c>
       <c r="H683" s="1" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="I683" s="1" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="J683" s="2" t="s">
         <v>29</v>
@@ -49888,7 +49900,7 @@
         <v>31</v>
       </c>
       <c r="N683" s="2" t="s">
-        <v>64</v>
+        <v>1013</v>
       </c>
       <c r="O683" s="2" t="s">
         <v>33</v>
@@ -49926,22 +49938,22 @@
         <v>22</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E684" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="G684" s="1" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="H684" s="1" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="I684" s="1" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="J684" s="2" t="s">
         <v>29</v>
@@ -49956,7 +49968,7 @@
         <v>31</v>
       </c>
       <c r="N684" s="2" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="O684" s="2" t="s">
         <v>33</v>
@@ -50000,16 +50012,16 @@
         <v>997</v>
       </c>
       <c r="F685" s="2" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="G685" s="1" t="s">
-        <v>749</v>
+        <v>204</v>
       </c>
       <c r="H685" s="1" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I685" s="1" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="J685" s="2" t="s">
         <v>29</v>
@@ -50024,7 +50036,7 @@
         <v>31</v>
       </c>
       <c r="N685" s="2" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="O685" s="2" t="s">
         <v>33</v>
@@ -50062,22 +50074,22 @@
         <v>22</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E686" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F686" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G686" s="1" t="s">
-        <v>625</v>
+        <v>749</v>
       </c>
       <c r="H686" s="1" t="s">
-        <v>626</v>
+        <v>750</v>
       </c>
       <c r="I686" s="1" t="s">
-        <v>626</v>
+        <v>750</v>
       </c>
       <c r="J686" s="2" t="s">
         <v>29</v>
@@ -50092,7 +50104,7 @@
         <v>31</v>
       </c>
       <c r="N686" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O686" s="2" t="s">
         <v>33</v>
@@ -50130,22 +50142,22 @@
         <v>22</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E687" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F687" s="2" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="G687" s="1" t="s">
-        <v>137</v>
+        <v>625</v>
       </c>
       <c r="H687" s="1" t="s">
-        <v>138</v>
+        <v>626</v>
       </c>
       <c r="I687" s="1" t="s">
-        <v>139</v>
+        <v>626</v>
       </c>
       <c r="J687" s="2" t="s">
         <v>29</v>
@@ -50160,7 +50172,7 @@
         <v>31</v>
       </c>
       <c r="N687" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O687" s="2" t="s">
         <v>33</v>
@@ -50175,7 +50187,7 @@
         <v>33</v>
       </c>
       <c r="S687" s="2" t="s">
-        <v>817</v>
+        <v>33</v>
       </c>
       <c r="T687" s="2" t="s">
         <v>33</v>
@@ -50204,16 +50216,16 @@
         <v>997</v>
       </c>
       <c r="F688" s="2" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="G688" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H688" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="I688" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="J688" s="2" t="s">
         <v>29</v>
@@ -50228,7 +50240,7 @@
         <v>31</v>
       </c>
       <c r="N688" s="2" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="O688" s="2" t="s">
         <v>33</v>
@@ -50243,7 +50255,7 @@
         <v>33</v>
       </c>
       <c r="S688" s="2" t="s">
-        <v>33</v>
+        <v>820</v>
       </c>
       <c r="T688" s="2" t="s">
         <v>33</v>
@@ -50266,22 +50278,22 @@
         <v>22</v>
       </c>
       <c r="D689" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="E689" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F689" s="2" t="s">
-        <v>364</v>
+        <v>176</v>
       </c>
       <c r="G689" s="1" t="s">
-        <v>587</v>
+        <v>177</v>
       </c>
       <c r="H689" s="1" t="s">
-        <v>588</v>
+        <v>178</v>
       </c>
       <c r="I689" s="1" t="s">
-        <v>588</v>
+        <v>179</v>
       </c>
       <c r="J689" s="2" t="s">
         <v>29</v>
@@ -50296,7 +50308,7 @@
         <v>31</v>
       </c>
       <c r="N689" s="2" t="s">
-        <v>642</v>
+        <v>239</v>
       </c>
       <c r="O689" s="2" t="s">
         <v>33</v>
@@ -50334,22 +50346,22 @@
         <v>22</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E690" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F690" s="2" t="s">
-        <v>180</v>
+        <v>364</v>
       </c>
       <c r="G690" s="1" t="s">
-        <v>181</v>
+        <v>587</v>
       </c>
       <c r="H690" s="1" t="s">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="I690" s="1" t="s">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="J690" s="2" t="s">
         <v>29</v>
@@ -50364,7 +50376,7 @@
         <v>31</v>
       </c>
       <c r="N690" s="2" t="s">
-        <v>162</v>
+        <v>760</v>
       </c>
       <c r="O690" s="2" t="s">
         <v>33</v>
@@ -50402,22 +50414,22 @@
         <v>22</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="E691" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F691" s="2" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="G691" s="1" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="H691" s="1" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="I691" s="1" t="s">
-        <v>358</v>
+        <v>182</v>
       </c>
       <c r="J691" s="2" t="s">
         <v>29</v>
@@ -50432,7 +50444,7 @@
         <v>31</v>
       </c>
       <c r="N691" s="2" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="O691" s="2" t="s">
         <v>33</v>
@@ -50470,22 +50482,22 @@
         <v>22</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E692" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>74</v>
+        <v>356</v>
       </c>
       <c r="G692" s="1" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="H692" s="1" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="I692" s="1" t="s">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="J692" s="2" t="s">
         <v>29</v>
@@ -50500,10 +50512,10 @@
         <v>31</v>
       </c>
       <c r="N692" s="2" t="s">
-        <v>518</v>
+        <v>82</v>
       </c>
       <c r="O692" s="2" t="s">
-        <v>993</v>
+        <v>33</v>
       </c>
       <c r="P692" s="2" t="s">
         <v>33</v>
@@ -50538,22 +50550,22 @@
         <v>22</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="E693" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>385</v>
+        <v>74</v>
       </c>
       <c r="G693" s="1" t="s">
-        <v>768</v>
+        <v>75</v>
       </c>
       <c r="H693" s="1" t="s">
-        <v>769</v>
+        <v>76</v>
       </c>
       <c r="I693" s="1" t="s">
-        <v>769</v>
+        <v>77</v>
       </c>
       <c r="J693" s="2" t="s">
         <v>29</v>
@@ -50568,10 +50580,10 @@
         <v>31</v>
       </c>
       <c r="N693" s="2" t="s">
-        <v>995</v>
+        <v>416</v>
       </c>
       <c r="O693" s="2" t="s">
-        <v>33</v>
+        <v>1022</v>
       </c>
       <c r="P693" s="2" t="s">
         <v>33</v>
@@ -50606,60 +50618,128 @@
         <v>22</v>
       </c>
       <c r="D694" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E694" s="2" t="s">
         <v>997</v>
       </c>
       <c r="F694" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="G694" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="H694" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="I694" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="J694" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K694" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L694" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M694" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N694" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T694" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U694" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V694" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F695" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="G694" s="1" t="s">
+      <c r="G695" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="H694" s="1" t="s">
+      <c r="H695" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="I694" s="1" t="s">
+      <c r="I695" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="J694" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K694" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L694" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M694" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N694" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T694" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U694" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V694" s="2" t="s">
+      <c r="J695" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K695" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L695" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M695" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N695" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T695" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U695" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V695" s="2" t="s">
         <v>33</v>
       </c>
     </row>
